--- a/individual_results/avey/499.xlsx
+++ b/individual_results/avey/499.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
@@ -612,7 +612,7 @@
         <v>0.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W2" t="n">
         <v>0.5</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -685,7 +685,7 @@
         <v>0.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W3" t="n">
         <v>0.5</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
@@ -748,7 +748,7 @@
         <v>0.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W4" t="n">
         <v>0.5</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
@@ -811,7 +811,7 @@
         <v>0.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
         <v>0.5</v>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="C6" t="n">
         <v>0.8262346571285599</v>
@@ -884,7 +884,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34753068574288</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="W6" t="n">
         <v>0.52129602861432</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
